--- a/E3/tabelas.xlsx
+++ b/E3/tabelas.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\amsxpto\E3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="-480" windowWidth="24960" windowHeight="14440"/>
+    <workbookView xWindow="480" yWindow="-480" windowWidth="24960" windowHeight="14445"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="2" r:id="rId1"/>
@@ -209,7 +214,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -329,16 +334,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="17">
@@ -696,20 +701,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="170" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScalePageLayoutView="170" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.1640625" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="8.25" customHeight="1"/>
-    <row r="2" spans="2:4">
+    <row r="1" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>23</v>
       </c>
@@ -718,7 +723,7 @@
       </c>
       <c r="D2" s="6"/>
     </row>
-    <row r="3" spans="2:4">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>24</v>
       </c>
@@ -727,7 +732,7 @@
       </c>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="2:4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>25</v>
       </c>
@@ -736,7 +741,7 @@
       </c>
       <c r="D4" s="6"/>
     </row>
-    <row r="5" spans="2:4">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>26</v>
       </c>
@@ -745,7 +750,7 @@
       </c>
       <c r="D5" s="6"/>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>27</v>
       </c>
@@ -754,7 +759,7 @@
       </c>
       <c r="D6" s="6"/>
     </row>
-    <row r="7" spans="2:4">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
@@ -763,8 +768,8 @@
       </c>
       <c r="D7" s="6"/>
     </row>
-    <row r="8" spans="2:4">
-      <c r="B8" s="5" t="s">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="4">
@@ -774,8 +779,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
-      <c r="B9" s="5"/>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B9" s="9"/>
       <c r="C9" s="4">
         <v>2</v>
       </c>
@@ -783,8 +788,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
-      <c r="B10" s="5"/>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
       <c r="C10" s="4">
         <v>3</v>
       </c>
@@ -792,8 +797,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
-      <c r="B11" s="5"/>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B11" s="9"/>
       <c r="C11" s="4">
         <v>4</v>
       </c>
@@ -801,8 +806,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
-      <c r="B12" s="7" t="s">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="4" t="s">
@@ -812,8 +817,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:4" ht="6" customHeight="1"/>
-    <row r="14" spans="2:4">
+    <row r="13" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
@@ -822,7 +827,7 @@
       </c>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="2:4">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B15" s="2" t="s">
         <v>24</v>
       </c>
@@ -831,43 +836,43 @@
       </c>
       <c r="D15" s="6"/>
     </row>
-    <row r="16" spans="2:4">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="2:4">
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="2:4">
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="2:4">
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="2:4">
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
@@ -878,7 +883,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>22</v>
       </c>
@@ -889,8 +894,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="2:4" ht="6" customHeight="1"/>
-    <row r="23" spans="2:4">
+    <row r="22" spans="2:4" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>23</v>
       </c>
@@ -899,7 +904,7 @@
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
         <v>24</v>
       </c>
@@ -908,43 +913,43 @@
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="8" t="s">
+      <c r="C25" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="2:4">
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C26" s="8" t="s">
+      <c r="C26" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="2:4">
+      <c r="D26" s="8"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C27" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="2:4">
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="C28" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="2:4">
+      <c r="D28" s="8"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
         <v>20</v>
       </c>
@@ -955,7 +960,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="4">
         <v>2</v>
@@ -964,7 +969,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="4">
         <v>3</v>
@@ -973,7 +978,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" s="3" t="s">
         <v>22</v>
       </c>
@@ -986,25 +991,25 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C28:D28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -1024,14 +1029,14 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="1.6640625" customWidth="1"/>
-    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="1.7109375" customWidth="1"/>
+    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="54.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1039,7 +1044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1047,7 +1052,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1068,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:3">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1076,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:3">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1084,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:3">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
@@ -1087,7 +1092,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1095,7 +1100,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:3">
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1103,7 +1108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:3">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1132,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
